--- a/Kundenliste.xlsx
+++ b/Kundenliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limadaev\Developer\pymailer\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limadaev\Developer\pymailer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C8BFE2-92C4-4E02-9482-FE965FA9D72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB11267C-8710-4232-8B02-EE98E12910A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A68CFE1A-E1BA-45F3-861B-67C2FE6E52F3}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>lomaliimadaev@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Anrede</t>
   </si>
@@ -95,13 +92,19 @@
     <t>Beispiel AG</t>
   </si>
   <si>
-    <t>C:\MailMerge\info.pdf</t>
-  </si>
-  <si>
     <t>Hallo Juel</t>
   </si>
   <si>
     <t>Musterfrau</t>
+  </si>
+  <si>
+    <t>Hallo Lom</t>
+  </si>
+  <si>
+    <t>beispielmail</t>
+  </si>
+  <si>
+    <t>C:\Users\user\Developer\pymailer\info.pdf</t>
   </si>
 </sst>
 </file>
@@ -154,9 +157,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -501,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2CE7CF-C222-4AE6-84FB-09731DD4924F}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="47.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,100 +524,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F5" s="1"/>
-      <c r="H5" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{1E2835A9-A745-480C-9CE3-97E4FB2BCB59}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Kundenliste.xlsx
+++ b/Kundenliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limadaev\Developer\pymailer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB11267C-8710-4232-8B02-EE98E12910A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB4D418-418B-4596-A7EE-C83BDF6D37B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A68CFE1A-E1BA-45F3-861B-67C2FE6E52F3}"/>
   </bookViews>
@@ -104,7 +104,7 @@
     <t>beispielmail</t>
   </si>
   <si>
-    <t>C:\Users\user\Developer\pymailer\info.pdf</t>
+    <t>C:\Users\limadaev\Developer\pymailer\info.pdf</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A4" sqref="A4:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="47.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +581,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
